--- a/excel_files/Donnée_densité_population.xlsx
+++ b/excel_files/Donnée_densité_population.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdigital-my.sharepoint.com/personal/fnour_bt0d0000_w2k_bouyguestelecom_fr/Documents/Bureau/Projet DATA/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehdi\OneDrive\Bureau\mspr_data\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5BC2E9FC-F5C7-40F4-B5FF-8015C702E263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5929F08-0D41-4DA4-8025-D0C7C750E485}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D6F30-0137-4209-B6B5-4C6447626947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBDC80F6-80B1-4D7D-8A1F-D76BE4BEBD7E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{CBDC80F6-80B1-4D7D-8A1F-D76BE4BEBD7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$97</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Département</t>
   </si>
@@ -339,6 +342,33 @@
   </si>
   <si>
     <t>densité h/km²</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
 </sst>
 </file>
@@ -374,8 +404,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,9 +425,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,7 +465,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -540,7 +571,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,19 +723,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FFE39D-489A-4367-A722-AA57BEC6738C}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B1" t="s">
@@ -714,8 +745,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" t="s">
@@ -725,8 +756,8 @@
         <v>20315</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" t="s">
@@ -736,8 +767,8 @@
         <v>11070</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>93</v>
       </c>
       <c r="B4" t="s">
@@ -747,8 +778,8 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>94</v>
       </c>
       <c r="B5" t="s">
@@ -758,8 +789,8 @@
         <v>7274</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>95</v>
       </c>
       <c r="B6" t="s">
@@ -769,8 +800,8 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>91</v>
       </c>
       <c r="B7" t="s">
@@ -780,8 +811,8 @@
         <v>988</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" t="s">
@@ -791,8 +822,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" t="s">
@@ -802,8 +833,8 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>59</v>
       </c>
       <c r="B10" t="s">
@@ -813,9 +844,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>6</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -824,8 +855,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -835,8 +866,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" t="s">
@@ -846,8 +877,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>74</v>
       </c>
       <c r="B14" t="s">
@@ -857,8 +888,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>44</v>
       </c>
       <c r="B15" t="s">
@@ -868,8 +899,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>38</v>
       </c>
       <c r="B16" t="s">
@@ -879,8 +910,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" t="s">
@@ -890,8 +921,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>62</v>
       </c>
       <c r="B18" t="s">
@@ -901,8 +932,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -912,8 +943,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" t="s">
@@ -923,8 +954,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>90</v>
       </c>
       <c r="B21" t="s">
@@ -934,8 +965,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>33</v>
       </c>
       <c r="B22" t="s">
@@ -945,8 +976,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>68</v>
       </c>
       <c r="B23" t="s">
@@ -956,8 +987,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>76</v>
       </c>
       <c r="B24" t="s">
@@ -967,8 +998,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>56</v>
       </c>
       <c r="B25" t="s">
@@ -978,8 +1009,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>42</v>
       </c>
       <c r="B26" t="s">
@@ -989,8 +1020,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>35</v>
       </c>
       <c r="B27" t="s">
@@ -1000,8 +1031,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>31</v>
       </c>
       <c r="B28" t="s">
@@ -1011,8 +1042,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>57</v>
       </c>
       <c r="B29" t="s">
@@ -1022,8 +1053,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>73</v>
       </c>
       <c r="B30" t="s">
@@ -1033,8 +1064,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>54</v>
       </c>
       <c r="B31" t="s">
@@ -1044,8 +1075,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -1055,8 +1086,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>84</v>
       </c>
       <c r="B33" t="s">
@@ -1066,9 +1097,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1077,8 +1108,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>14</v>
       </c>
       <c r="B35" t="s">
@@ -1088,8 +1119,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>66</v>
       </c>
       <c r="B36" t="s">
@@ -1099,8 +1130,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>49</v>
       </c>
       <c r="B37" t="s">
@@ -1110,8 +1141,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>45</v>
       </c>
       <c r="B38" t="s">
@@ -1121,8 +1152,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>60</v>
       </c>
       <c r="B39" t="s">
@@ -1132,8 +1163,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" t="s">
@@ -1143,8 +1174,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>30</v>
       </c>
       <c r="B41" t="s">
@@ -1154,8 +1185,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>22</v>
       </c>
       <c r="B42" t="s">
@@ -1165,8 +1196,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>63</v>
       </c>
       <c r="B43" t="s">
@@ -1176,8 +1207,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>64</v>
       </c>
       <c r="B44" t="s">
@@ -1187,8 +1218,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
         <v>27</v>
       </c>
       <c r="B45" t="s">
@@ -1198,8 +1229,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
         <v>25</v>
       </c>
       <c r="B46" t="s">
@@ -1209,8 +1240,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
         <v>17</v>
       </c>
       <c r="B47" t="s">
@@ -1220,8 +1251,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
         <v>28</v>
       </c>
       <c r="B48" t="s">
@@ -1231,8 +1262,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
         <v>85</v>
       </c>
       <c r="B49" t="s">
@@ -1242,8 +1273,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
         <v>72</v>
       </c>
       <c r="B50" t="s">
@@ -1253,8 +1284,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
         <v>26</v>
       </c>
       <c r="B51" t="s">
@@ -1264,9 +1295,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>7</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
@@ -1275,8 +1306,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" t="s">
@@ -1286,8 +1317,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
         <v>10</v>
       </c>
       <c r="B54" t="s">
@@ -1297,8 +1328,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
         <v>80</v>
       </c>
       <c r="B55" t="s">
@@ -1308,8 +1339,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
         <v>86</v>
       </c>
       <c r="B56" t="s">
@@ -1319,8 +1350,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
         <v>71</v>
       </c>
       <c r="B57" t="s">
@@ -1330,8 +1361,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
         <v>16</v>
       </c>
       <c r="B58" t="s">
@@ -1341,8 +1372,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
         <v>51</v>
       </c>
       <c r="B59" t="s">
@@ -1352,9 +1383,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>3</v>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -1363,8 +1394,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
         <v>43</v>
       </c>
       <c r="B61" t="s">
@@ -1374,8 +1405,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
         <v>65</v>
       </c>
       <c r="B62" t="s">
@@ -1385,8 +1416,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
         <v>81</v>
       </c>
       <c r="B63" t="s">
@@ -1396,9 +1427,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>2</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -1407,8 +1438,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
         <v>47</v>
       </c>
       <c r="B65" t="s">
@@ -1418,8 +1449,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
         <v>21</v>
       </c>
       <c r="B66" t="s">
@@ -1429,8 +1460,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
         <v>79</v>
       </c>
       <c r="B67" t="s">
@@ -1440,8 +1471,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
         <v>41</v>
       </c>
       <c r="B68" t="s">
@@ -1451,8 +1482,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
         <v>40</v>
       </c>
       <c r="B69" t="s">
@@ -1462,8 +1493,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
         <v>87</v>
       </c>
       <c r="B70" t="s">
@@ -1473,8 +1504,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
         <v>82</v>
       </c>
       <c r="B71" t="s">
@@ -1484,8 +1515,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
         <v>53</v>
       </c>
       <c r="B72" t="s">
@@ -1495,8 +1526,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
         <v>61</v>
       </c>
       <c r="B73" t="s">
@@ -1506,8 +1537,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
         <v>39</v>
       </c>
       <c r="B74" t="s">
@@ -1517,8 +1548,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
         <v>11</v>
       </c>
       <c r="B75" t="s">
@@ -1528,8 +1559,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
         <v>88</v>
       </c>
       <c r="B76" t="s">
@@ -1539,9 +1570,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>8</v>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -1550,8 +1581,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B78" t="s">
@@ -1561,8 +1592,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
         <v>89</v>
       </c>
       <c r="B79" t="s">
@@ -1572,8 +1603,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
         <v>24</v>
       </c>
       <c r="B80" t="s">
@@ -1583,8 +1614,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
         <v>70</v>
       </c>
       <c r="B81" t="s">
@@ -1594,9 +1625,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>9</v>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -1605,8 +1636,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
         <v>12</v>
       </c>
       <c r="B83" t="s">
@@ -1616,8 +1647,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
         <v>19</v>
       </c>
       <c r="B84" t="s">
@@ -1627,8 +1658,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
         <v>18</v>
       </c>
       <c r="B85" t="s">
@@ -1638,8 +1669,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
         <v>58</v>
       </c>
       <c r="B86" t="s">
@@ -1649,8 +1680,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
         <v>46</v>
       </c>
       <c r="B87" t="s">
@@ -1660,8 +1691,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
         <v>36</v>
       </c>
       <c r="B88" t="s">
@@ -1671,8 +1702,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B89" t="s">
@@ -1682,9 +1713,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>5</v>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
@@ -1693,9 +1724,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>4</v>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
@@ -1704,8 +1735,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
         <v>23</v>
       </c>
       <c r="B92" t="s">
@@ -1715,8 +1746,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
         <v>55</v>
       </c>
       <c r="B93" t="s">
@@ -1726,8 +1757,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
         <v>15</v>
       </c>
       <c r="B94" t="s">
@@ -1737,8 +1768,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
         <v>32</v>
       </c>
       <c r="B95" t="s">
@@ -1748,8 +1779,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
         <v>52</v>
       </c>
       <c r="B96" t="s">
@@ -1759,8 +1790,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
         <v>48</v>
       </c>
       <c r="B97" t="s">
@@ -1771,6 +1802,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C97" xr:uid="{B3FFE39D-489A-4367-A722-AA57BEC6738C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2023,20 +2055,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b11b7ebf-17c0-4a4d-8ebb-e533a19f9214" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b11b7ebf-17c0-4a4d-8ebb-e533a19f9214" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2059,14 +2091,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFBAEE2-6606-40ED-8A96-74BFFF53F74F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3677C67-7767-44FF-85C3-AD16DE1A2185}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7606e94c-dfd8-4c51-8634-393efd7d41f3"/>
@@ -2083,6 +2107,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFBAEE2-6606-40ED-8A96-74BFFF53F74F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{59934039-ae21-42ab-8848-d62b6328cef8}" enabled="1" method="Standard" siteId="{61ed2b68-f880-49d7-bbc9-9a645e9dcf7c}" removed="0"/>
